--- a/service-system/src/main/resources/static/排水断面尺寸.xlsx
+++ b/service-system/src/main/resources/static/排水断面尺寸.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9C8B34-AAD0-45B8-89EE-B604D84B0563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BEAED2-25DC-4ED3-A827-8744936797E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排水断面尺寸" sheetId="9" r:id="rId1"/>
@@ -2617,10 +2617,10 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
@@ -2633,7 +2633,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -2711,7 +2711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2721,7 +2721,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2731,7 +2731,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2741,7 +2741,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2751,7 +2751,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2761,7 +2761,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2771,7 +2771,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2781,7 +2781,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2791,7 +2791,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2801,7 +2801,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2811,7 +2811,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2821,7 +2821,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2831,7 +2831,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2841,7 +2841,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2851,7 +2851,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2861,7 +2861,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2871,7 +2871,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2881,7 +2881,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2891,7 +2891,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2901,7 +2901,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2911,7 +2911,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2921,7 +2921,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2931,7 +2931,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2941,7 +2941,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2951,7 +2951,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2961,7 +2961,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2971,7 +2971,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2981,7 +2981,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2991,7 +2991,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3001,7 +3001,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3030,7 +3030,7 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.98425196850393704" bottom="1.6535433070866143" header="0.47244094488188981" footer="0"/>
+  <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.98425196850393704" bottom="0.62992125984251968" header="0.47244094488188981" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C
@@ -3043,13 +3043,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -3086,10 +3086,10 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.29861111111111099" footer="0.29861111111111099"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C
+陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>